--- a/medicine/Pharmacie/Classe_ATC_J04/Classe_ATC_J04.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_J04/Classe_ATC_J04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une section du Code ATC.
 J Anti-infectieux pour usage systémique
@@ -514,34 +526,209 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>J04AA Acide aminosalicylique et ses dérivés
-J04AA01 Acide aminosalicylique
+          <t>J04AA Acide aminosalicylique et ses dérivés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>J04AA01 Acide aminosalicylique
 J04AA02 Aminosalicylate de sodium
-J04AA03 Aminosalicylate de calcium
-J04AB Antibiotiques
-J04AB01 Cyclosérine
+J04AA03 Aminosalicylate de calcium</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>J04A Médicaments pour le traitement de la tuberculose</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>J04AB Antibiotiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>J04AB01 Cyclosérine
 J04AB02 Rifampicine
 J04AB03 Rifamycine
 J04AB04 Rifabutine
 J04AB05 Rifapentine
-J04AB30 Capréomycine
-J04AC Hydrazides
-J04AC01 Isoniazide
-J04AC51 Isoniazide, associations
-J04AD Dérivés du thiocarbamide
-J04AD01 Protionamide
+J04AB30 Capréomycine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>J04A Médicaments pour le traitement de la tuberculose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>J04AC Hydrazides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>J04AC01 Isoniazide
+J04AC51 Isoniazide, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>J04A Médicaments pour le traitement de la tuberculose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>J04AD Dérivés du thiocarbamide</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J04AD01 Protionamide
 J04AD02 Tiocarlide
-J04AD03 Éthionamide
-J04AK Autres médicaments antituberculeux
-J04AK01 Pyrazinamide
+J04AD03 Éthionamide</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>J04A Médicaments pour le traitement de la tuberculose</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>J04AK Autres médicaments antituberculeux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>J04AK01 Pyrazinamide
 J04AK02 Éthambutol
 J04AK03 Térizidone
 J04AK04 Morinamide
 J04AK05 Bédaquiline
 J04AK06 Délamanid
-J04AK07 Amithiozone
-J04AM Associations de médicaments antituberculeux
-J04AM01 Streptomycine et isoniazide
+J04AK07 Amithiozone</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>J04A Médicaments pour le traitement de la tuberculose</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>J04AM Associations de médicaments antituberculeux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>J04AM01 Streptomycine et isoniazide
 J04AM02 Rifampicin et isoniazide
 J04AM03 Éthambutol et isoniazide
 J04AM04 Thioacétazone et isoniazide
@@ -550,34 +737,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Classe_ATC_J04</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_J04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>J04B Médicaments pour le traitement de la lèpre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">J04BA Médicaments pour le traitement de la lèpre
-J04BA01 Clofazimine
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>J04BA Médicaments pour le traitement de la lèpre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J04BA01 Clofazimine
 J04BA02 Dapsone
 J04BA03 Aldésulfone sodium
  Portail de la pharmacie                     </t>
